--- a/report/Yaniv-Graph.xlsx
+++ b/report/Yaniv-Graph.xlsx
@@ -1495,7 +1495,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Numbe</a:t>
+              <a:t>Number</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -10147,16 +10147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>70598</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>5883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>375398</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>82083</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10237,16 +10237,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>546974</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>46784</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502151</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>24371</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11108,8 +11108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G3:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
